--- a/src/Excel/entregable1/BuscarCuenta.xlsx
+++ b/src/Excel/entregable1/BuscarCuenta.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BB75C8-4697-4E47-81E4-98C94E25803C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693FC231-652B-404A-A21A-09806BAB4937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buscar Cuenta" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="297">
   <si>
     <t>Usuario</t>
   </si>
@@ -38,20 +38,881 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>4793252</t>
+  </si>
+  <si>
+    <t>4793253</t>
+  </si>
+  <si>
+    <t>4793254</t>
+  </si>
+  <si>
+    <t>4793255</t>
+  </si>
+  <si>
+    <t>4793256</t>
+  </si>
+  <si>
+    <t>4793257</t>
+  </si>
+  <si>
+    <t>4793258</t>
+  </si>
+  <si>
+    <t>4793259</t>
+  </si>
+  <si>
+    <t>4793260</t>
+  </si>
+  <si>
+    <t>4793261</t>
+  </si>
+  <si>
+    <t>4793262</t>
+  </si>
+  <si>
+    <t>4793263</t>
+  </si>
+  <si>
+    <t>4793264</t>
+  </si>
+  <si>
+    <t>4793265</t>
+  </si>
+  <si>
+    <t>4793266</t>
+  </si>
+  <si>
+    <t>4793267</t>
+  </si>
+  <si>
+    <t>4793268</t>
+  </si>
+  <si>
+    <t>4793269</t>
+  </si>
+  <si>
+    <t>4793270</t>
+  </si>
+  <si>
+    <t>4793271</t>
+  </si>
+  <si>
+    <t>4793272</t>
+  </si>
+  <si>
+    <t>4793273</t>
+  </si>
+  <si>
+    <t>4793274</t>
+  </si>
+  <si>
+    <t>4793275</t>
+  </si>
+  <si>
+    <t>4793276</t>
+  </si>
+  <si>
+    <t>4793277</t>
+  </si>
+  <si>
+    <t>4793278</t>
+  </si>
+  <si>
+    <t>4793279</t>
+  </si>
+  <si>
+    <t>4793280</t>
+  </si>
+  <si>
+    <t>4793281</t>
+  </si>
+  <si>
+    <t>4793282</t>
+  </si>
+  <si>
+    <t>4793283</t>
+  </si>
+  <si>
+    <t>4793284</t>
+  </si>
+  <si>
+    <t>4793285</t>
+  </si>
+  <si>
+    <t>4793286</t>
+  </si>
+  <si>
+    <t>4793287</t>
+  </si>
+  <si>
+    <t>4793288</t>
+  </si>
+  <si>
+    <t>4793289</t>
+  </si>
+  <si>
+    <t>4793290</t>
+  </si>
+  <si>
+    <t>4793291</t>
+  </si>
+  <si>
+    <t>4793292</t>
+  </si>
+  <si>
+    <t>4793293</t>
+  </si>
+  <si>
+    <t>4793294</t>
+  </si>
+  <si>
+    <t>4793295</t>
+  </si>
+  <si>
+    <t>4793296</t>
+  </si>
+  <si>
+    <t>4793297</t>
+  </si>
+  <si>
+    <t>4793298</t>
+  </si>
+  <si>
+    <t>4793299</t>
+  </si>
+  <si>
+    <t>4793300</t>
+  </si>
+  <si>
+    <t>4793301</t>
+  </si>
+  <si>
+    <t>4793302</t>
+  </si>
+  <si>
+    <t>4793303</t>
+  </si>
+  <si>
+    <t>4793304</t>
+  </si>
+  <si>
+    <t>4793305</t>
+  </si>
+  <si>
+    <t>4793306</t>
+  </si>
+  <si>
+    <t>4793307</t>
+  </si>
+  <si>
+    <t>4793308</t>
+  </si>
+  <si>
+    <t>4793309</t>
+  </si>
+  <si>
+    <t>4793310</t>
+  </si>
+  <si>
+    <t>4793311</t>
+  </si>
+  <si>
+    <t>4793312</t>
+  </si>
+  <si>
+    <t>4793313</t>
+  </si>
+  <si>
+    <t>4793314</t>
+  </si>
+  <si>
+    <t>4793315</t>
+  </si>
+  <si>
+    <t>4793316</t>
+  </si>
+  <si>
+    <t>4793317</t>
+  </si>
+  <si>
+    <t>4793318</t>
+  </si>
+  <si>
+    <t>4793319</t>
+  </si>
+  <si>
+    <t>4793320</t>
+  </si>
+  <si>
+    <t>4793321</t>
+  </si>
+  <si>
+    <t>4793322</t>
+  </si>
+  <si>
+    <t>4793323</t>
+  </si>
+  <si>
+    <t>4793324</t>
+  </si>
+  <si>
+    <t>4793325</t>
+  </si>
+  <si>
+    <t>4793326</t>
+  </si>
+  <si>
+    <t>4793327</t>
+  </si>
+  <si>
+    <t>4793328</t>
+  </si>
+  <si>
+    <t>4793329</t>
+  </si>
+  <si>
+    <t>4793330</t>
+  </si>
+  <si>
+    <t>4793331</t>
+  </si>
+  <si>
+    <t>4793332</t>
+  </si>
+  <si>
+    <t>4793333</t>
+  </si>
+  <si>
+    <t>4793357</t>
+  </si>
+  <si>
+    <t>4793361</t>
+  </si>
+  <si>
+    <t>4793371</t>
+  </si>
+  <si>
+    <t>4793372</t>
+  </si>
+  <si>
+    <t>4793373</t>
+  </si>
+  <si>
+    <t>4793374</t>
+  </si>
+  <si>
+    <t>4793375</t>
+  </si>
+  <si>
+    <t>4793377</t>
+  </si>
+  <si>
+    <t>4793379</t>
+  </si>
+  <si>
+    <t>4793380</t>
+  </si>
+  <si>
+    <t>4793381</t>
+  </si>
+  <si>
+    <t>4793382</t>
+  </si>
+  <si>
+    <t>4793383</t>
+  </si>
+  <si>
+    <t>4793384</t>
+  </si>
+  <si>
+    <t>4793385</t>
+  </si>
+  <si>
+    <t>4793386</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>AA23066FBZCJ</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 10:06:36</t>
+    <t>1009477051 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:56:17</t>
+  </si>
+  <si>
+    <t>1009477132 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:56:37</t>
+  </si>
+  <si>
+    <t>1010792564 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:56:58</t>
+  </si>
+  <si>
+    <t>1010792572 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:57:18</t>
+  </si>
+  <si>
+    <t>1010792588 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:57:38</t>
+  </si>
+  <si>
+    <t>1010792599 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:57:59</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:58:17</t>
+  </si>
+  <si>
+    <t>1010792602 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:58:38</t>
+  </si>
+  <si>
+    <t>1009477086 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:58:59</t>
+  </si>
+  <si>
+    <t>1010792629 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:59:20</t>
+  </si>
+  <si>
+    <t>1010792637 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 12:59:40</t>
+  </si>
+  <si>
+    <t>1010792645 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:00:00</t>
+  </si>
+  <si>
+    <t>1010792653 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:00:21</t>
+  </si>
+  <si>
+    <t>1009477124 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:00:40</t>
+  </si>
+  <si>
+    <t>1010792677 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:01:01</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:01:17</t>
+  </si>
+  <si>
+    <t>1010792688 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:01:38</t>
+  </si>
+  <si>
+    <t>1010792696 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:01:58</t>
+  </si>
+  <si>
+    <t>1010792707 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:02:18</t>
+  </si>
+  <si>
+    <t>1010792718 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:02:39</t>
+  </si>
+  <si>
+    <t>1010792726 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:03:00</t>
+  </si>
+  <si>
+    <t>1010792734 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:03:20</t>
+  </si>
+  <si>
+    <t>1010792742 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:03:40</t>
+  </si>
+  <si>
+    <t>1010792758 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:04:00</t>
+  </si>
+  <si>
+    <t>1010792769 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:04:20</t>
+  </si>
+  <si>
+    <t>1010792777 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:04:41</t>
+  </si>
+  <si>
+    <t>1010792785 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:05:00</t>
+  </si>
+  <si>
+    <t>1010792793 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:05:20</t>
+  </si>
+  <si>
+    <t>1010792807 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:05:41</t>
+  </si>
+  <si>
+    <t>1010792815 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:06:00</t>
+  </si>
+  <si>
+    <t>1010792823 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:06:20</t>
+  </si>
+  <si>
+    <t>1010792831 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:06:40</t>
+  </si>
+  <si>
+    <t>1010792847 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:07:00</t>
+  </si>
+  <si>
+    <t>1009477248 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:07:20</t>
+  </si>
+  <si>
+    <t>1010792866 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:07:40</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:07:57</t>
+  </si>
+  <si>
+    <t>1009477353 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:08:18</t>
+  </si>
+  <si>
+    <t>1010792882 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:08:37</t>
+  </si>
+  <si>
+    <t>1010792898 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:08:58</t>
+  </si>
+  <si>
+    <t>1009477299 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:09:19</t>
+  </si>
+  <si>
+    <t>1009477302 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:09:40</t>
+  </si>
+  <si>
+    <t>1010792928 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:10:00</t>
+  </si>
+  <si>
+    <t>1010792939 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:10:20</t>
+  </si>
+  <si>
+    <t>1010792947 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:10:41</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:10:59</t>
+  </si>
+  <si>
+    <t>1010792955 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:11:19</t>
+  </si>
+  <si>
+    <t>1010792963 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:11:40</t>
+  </si>
+  <si>
+    <t>1010480325 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:12:00</t>
+  </si>
+  <si>
+    <t>1010792987 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:12:21</t>
+  </si>
+  <si>
+    <t>1010792998 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:12:41</t>
+  </si>
+  <si>
+    <t>1010793005 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:13:02</t>
+  </si>
+  <si>
+    <t>1010793013 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:13:22</t>
+  </si>
+  <si>
+    <t>1010793021 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:13:43</t>
+  </si>
+  <si>
+    <t>1010793037 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:14:03</t>
+  </si>
+  <si>
+    <t>1010793048 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:14:23</t>
+  </si>
+  <si>
+    <t>1010793056 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:14:44</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:15:01</t>
+  </si>
+  <si>
+    <t>1010793064 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:15:21</t>
+  </si>
+  <si>
+    <t>1010793072 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:15:42</t>
+  </si>
+  <si>
+    <t>1010793088 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:16:02</t>
+  </si>
+  <si>
+    <t>1010793099 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:16:22</t>
+  </si>
+  <si>
+    <t>1010793102 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:16:43</t>
+  </si>
+  <si>
+    <t>1010793118 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:17:04</t>
+  </si>
+  <si>
+    <t>1010793129 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:17:24</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:17:41</t>
+  </si>
+  <si>
+    <t>1010793137 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:18:02</t>
+  </si>
+  <si>
+    <t>1009477458 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:18:23</t>
+  </si>
+  <si>
+    <t>1010793153 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:18:43</t>
+  </si>
+  <si>
+    <t>1010793161 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:19:04</t>
+  </si>
+  <si>
+    <t>1010793177 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:19:24</t>
+  </si>
+  <si>
+    <t>1010793188 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:19:45</t>
+  </si>
+  <si>
+    <t>1010793196 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:20:05</t>
+  </si>
+  <si>
+    <t>1010793207 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:20:28</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:20:47</t>
+  </si>
+  <si>
+    <t>1010793226 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:21:07</t>
+  </si>
+  <si>
+    <t>1010793234 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:21:27</t>
+  </si>
+  <si>
+    <t>1010793242 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:21:48</t>
+  </si>
+  <si>
+    <t>1010793258 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:22:08</t>
+  </si>
+  <si>
+    <t>1010793269 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:22:28</t>
+  </si>
+  <si>
+    <t>1010793277 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:22:48</t>
+  </si>
+  <si>
+    <t>1010793285 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:23:10</t>
+  </si>
+  <si>
+    <t>1010793293 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:23:31</t>
+  </si>
+  <si>
+    <t>1010793498 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:23:51</t>
+  </si>
+  <si>
+    <t>1010793501 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:24:11</t>
+  </si>
+  <si>
+    <t>1010793528 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:24:31</t>
+  </si>
+  <si>
+    <t>1009477687 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:24:51</t>
+  </si>
+  <si>
+    <t>1010793544 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:25:12</t>
+  </si>
+  <si>
+    <t>1010793579 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:25:32</t>
+  </si>
+  <si>
+    <t>1010793587 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:25:52</t>
+  </si>
+  <si>
+    <t>1009477787 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:26:12</t>
+  </si>
+  <si>
+    <t>1010793609 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:26:33</t>
+  </si>
+  <si>
+    <t>1010793617 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:26:53</t>
+  </si>
+  <si>
+    <t>1010793625 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:27:13</t>
+  </si>
+  <si>
+    <t>1010793633 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:27:33</t>
+  </si>
+  <si>
+    <t>1010793668 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:27:54</t>
+  </si>
+  <si>
+    <t>1010793676 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:28:14</t>
+  </si>
+  <si>
+    <t>1010793684 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:28:34</t>
+  </si>
+  <si>
+    <t>1010501861 - PEN</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 13:28:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +924,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,7 +977,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -473,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A91A77-E5B6-4AE4-A13D-A81F28ECF0AB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,9 +1408,10 @@
     <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -503,30 +1427,1956 @@
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" t="s">
+        <v>250</v>
+      </c>
+      <c r="F76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>258</v>
+      </c>
+      <c r="F80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>260</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" t="s">
+        <v>268</v>
+      </c>
+      <c r="F85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" t="s">
+        <v>274</v>
+      </c>
+      <c r="F88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" t="s">
+        <v>278</v>
+      </c>
+      <c r="F90" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" t="s">
+        <v>284</v>
+      </c>
+      <c r="F93" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" t="s">
+        <v>288</v>
+      </c>
+      <c r="F95" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>290</v>
+      </c>
+      <c r="F96" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>292</v>
+      </c>
+      <c r="F97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" t="s">
+        <v>296</v>
+      </c>
+      <c r="F99" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -534,16 +3384,80 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASSED">
+  <conditionalFormatting sqref="A1:XFD1 A100:XFD1048576 D2:XFD99 A2:B99">
+    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C83">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C2)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:C85">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C84)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:C95">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C86)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96:C99">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C96)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Excel/entregable1/BuscarCuenta.xlsx
+++ b/src/Excel/entregable1/BuscarCuenta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B2059F-11A4-452D-BB1D-EE7BA88D27C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E2672B-4E94-4A49-A981-EE9D49418B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Usuario</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>arreglo</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>1008141847 - PEN</t>
   </si>
   <si>
-    <t>21 jun. 2023, 11:30:02</t>
-  </si>
-  <si>
     <t>3436193</t>
   </si>
   <si>
@@ -63,13 +57,15 @@
   </si>
   <si>
     <t>21 jun. 2023, 11:31:52</t>
+  </si>
+  <si>
+    <t>CodCliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,16 +539,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.6328125" collapsed="true"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -563,56 +559,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
